--- a/TP4/output/matrix_indicadores.xlsx
+++ b/TP4/output/matrix_indicadores.xlsx
@@ -1,20 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNLP_Maeco\Distribucion\TP-Distribucion\TP4\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F9015-60BB-4D27-A033-DB4C0A432FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>Kakwani</t>
+  </si>
+  <si>
+    <t>Atkinson (1)</t>
+  </si>
+  <si>
+    <t>Atkinson (2)</t>
+  </si>
+  <si>
+    <t>Partidos del GBA</t>
+  </si>
+  <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>Noroeste</t>
+  </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Cuyo</t>
+  </si>
+  <si>
+    <t>Pampeana</t>
+  </si>
+  <si>
+    <t>Patagónica</t>
+  </si>
+  <si>
+    <t>como vario el bienestar en cada una de las regiones entre estos dos periodos por medida</t>
+  </si>
+  <si>
+    <t>Tasa de variación (%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -36,250 +103,1316 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>214602.5</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C3" s="1">
         <v>114692.0546875</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D3" s="1">
         <v>146430.328125</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E3" s="1">
         <v>146440.015625</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F3" s="1">
         <v>97571.7578125</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G3" s="1">
         <v>278846.28125</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H3" s="1">
         <v>149237.46875</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I3" s="1">
         <v>190364.25</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J3" s="1">
         <v>191380.953125</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K3" s="1">
         <v>142482.5625</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
+      <c r="L3">
+        <f xml:space="preserve"> ((B3/G3)-1)*100</f>
+        <v>-23.039138611428044</v>
+      </c>
+      <c r="M3">
+        <f xml:space="preserve"> ((C3/H3)-1)*100</f>
+        <v>-23.147949607996821</v>
+      </c>
+      <c r="N3">
+        <f xml:space="preserve"> ((D3/I3)-1)*100</f>
+        <v>-23.078872149051101</v>
+      </c>
+      <c r="O3">
+        <f xml:space="preserve"> ((E3/J3)-1)*100</f>
+        <v>-23.482450456105177</v>
+      </c>
+      <c r="P3">
+        <f xml:space="preserve"> ((F3/K3)-1)*100</f>
+        <v>-31.520211245147976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
         <v>448128.90625</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C4" s="1">
         <v>243093.234375</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D4" s="1">
         <v>307456.21875</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E4" s="1">
         <v>307191.8125</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F4" s="1">
         <v>215069.203125</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G4" s="1">
         <v>499502.40625</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H4" s="1">
         <v>295866.90625</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I4" s="1">
         <v>354841.71875</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J4" s="1">
         <v>358728.96875</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K4" s="1">
         <v>158249.1875</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
+      <c r="L4">
+        <f xml:space="preserve"> ((B4/G4)-1)*100</f>
+        <v>-10.284935439187382</v>
+      </c>
+      <c r="M4">
+        <f xml:space="preserve"> ((C4/H4)-1)*100</f>
+        <v>-17.83696343193165</v>
+      </c>
+      <c r="N4">
+        <f xml:space="preserve"> ((D4/I4)-1)*100</f>
+        <v>-13.353982211258808</v>
+      </c>
+      <c r="O4">
+        <f xml:space="preserve"> ((E4/J4)-1)*100</f>
+        <v>-14.366600062878254</v>
+      </c>
+      <c r="P4">
+        <f xml:space="preserve"> ((F4/K4)-1)*100</f>
+        <v>35.905407492218558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
         <v>160441.3125</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C5" s="1">
         <v>98820.46875</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D5" s="1">
         <v>115919.8671875</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E5" s="1">
         <v>124895.46875</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F5" s="1">
         <v>99193.8359375</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G5" s="1">
         <v>213773.5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H5" s="1">
         <v>134606.890625</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I5" s="1">
         <v>156001.546875</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J5" s="1">
         <v>169346.8125</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K5" s="1">
         <v>135195.828125</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
+      <c r="L5">
+        <f xml:space="preserve"> ((B5/G5)-1)*100</f>
+        <v>-24.947988174399537</v>
+      </c>
+      <c r="M5">
+        <f xml:space="preserve"> ((C5/H5)-1)*100</f>
+        <v>-26.58587662848333</v>
+      </c>
+      <c r="N5">
+        <f xml:space="preserve"> ((D5/I5)-1)*100</f>
+        <v>-25.693129645449233</v>
+      </c>
+      <c r="O5">
+        <f xml:space="preserve"> ((E5/J5)-1)*100</f>
+        <v>-26.248704120132171</v>
+      </c>
+      <c r="P5">
+        <f xml:space="preserve"> ((F5/K5)-1)*100</f>
+        <v>-26.629514154987909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
         <v>155993.265625</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C6" s="1">
         <v>95318.8984375</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D6" s="1">
         <v>112309.8046875</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E6" s="1">
         <v>120051.5078125</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F6" s="1">
         <v>91631.0234375</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G6" s="1">
         <v>209635.953125</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H6" s="1">
         <v>129980.078125</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I6" s="1">
         <v>151913.15625</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J6" s="1">
         <v>164261.015625</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K6" s="1">
         <v>128776.09375</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
+      <c r="L6">
+        <f xml:space="preserve"> ((B6/G6)-1)*100</f>
+        <v>-25.588496009563009</v>
+      </c>
+      <c r="M6">
+        <f xml:space="preserve"> ((C6/H6)-1)*100</f>
+        <v>-26.666532431352163</v>
+      </c>
+      <c r="N6">
+        <f xml:space="preserve"> ((D6/I6)-1)*100</f>
+        <v>-26.069731246532502</v>
+      </c>
+      <c r="O6">
+        <f xml:space="preserve"> ((E6/J6)-1)*100</f>
+        <v>-26.914181459481647</v>
+      </c>
+      <c r="P6">
+        <f xml:space="preserve"> ((F6/K6)-1)*100</f>
+        <v>-28.844694097191471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
         <v>195715.640625</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C7" s="1">
         <v>119823.3125</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D7" s="1">
         <v>141029.046875</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E7" s="1">
         <v>150522.828125</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F7" s="1">
         <v>113786.9140625</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G7" s="1">
         <v>241336.828125</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H7" s="1">
         <v>148998.953125</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I7" s="1">
         <v>174551.640625</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J7" s="1">
         <v>186860.078125</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K7" s="1">
         <v>139158.40625</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
+      <c r="L7">
+        <f xml:space="preserve"> ((B7/G7)-1)*100</f>
+        <v>-18.903533229653036</v>
+      </c>
+      <c r="M7">
+        <f xml:space="preserve"> ((C7/H7)-1)*100</f>
+        <v>-19.581104439387321</v>
+      </c>
+      <c r="N7">
+        <f xml:space="preserve"> ((D7/I7)-1)*100</f>
+        <v>-19.204972024306922</v>
+      </c>
+      <c r="O7">
+        <f xml:space="preserve"> ((E7/J7)-1)*100</f>
+        <v>-19.446235046360304</v>
+      </c>
+      <c r="P7">
+        <f xml:space="preserve"> ((F7/K7)-1)*100</f>
+        <v>-18.232094539743258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
         <v>232697.984375</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C8" s="1">
         <v>133922.375</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D8" s="1">
         <v>163356.453125</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E8" s="1">
         <v>169101.859375</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F8" s="1">
         <v>117277.21875</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G8" s="1">
         <v>298466.21875</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H8" s="1">
         <v>182363.234375</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I8" s="1">
         <v>214878.6875</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J8" s="1">
         <v>228570.46875</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K8" s="1">
         <v>169007.75</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
+      <c r="L8">
+        <f xml:space="preserve"> ((B8/G8)-1)*100</f>
+        <v>-22.035403085294725</v>
+      </c>
+      <c r="M8">
+        <f xml:space="preserve"> ((C8/H8)-1)*100</f>
+        <v>-26.562842856465984</v>
+      </c>
+      <c r="N8">
+        <f xml:space="preserve"> ((D8/I8)-1)*100</f>
+        <v>-23.977359027288358</v>
+      </c>
+      <c r="O8">
+        <f xml:space="preserve"> ((E8/J8)-1)*100</f>
+        <v>-26.017625855264825</v>
+      </c>
+      <c r="P8">
+        <f xml:space="preserve"> ((F8/K8)-1)*100</f>
+        <v>-30.608378166090013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
         <v>285426.71875</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C9" s="1">
         <v>166605.234375</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D9" s="1">
         <v>201530.671875</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E9" s="1">
         <v>207453</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F9" s="1">
         <v>139279</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G9" s="1">
         <v>365631.59375</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H9" s="1">
         <v>222000.625</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I9" s="1">
         <v>262509.90625</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J9" s="1">
         <v>278368.4375</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K9" s="1">
         <v>210709.90625</v>
       </c>
+      <c r="L9">
+        <f xml:space="preserve"> ((B9/G9)-1)*100</f>
+        <v>-21.935980470779548</v>
+      </c>
+      <c r="M9">
+        <f xml:space="preserve"> ((C9/H9)-1)*100</f>
+        <v>-24.952808409886231</v>
+      </c>
+      <c r="N9">
+        <f xml:space="preserve"> ((D9/I9)-1)*100</f>
+        <v>-23.229307893975903</v>
+      </c>
+      <c r="O9">
+        <f xml:space="preserve"> ((E9/J9)-1)*100</f>
+        <v>-25.475387273386552</v>
+      </c>
+      <c r="P9">
+        <f xml:space="preserve"> ((F9/K9)-1)*100</f>
+        <v>-33.900117712192277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J29" s="3">
+        <v>2024</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>214602.5</v>
+      </c>
+      <c r="M29" s="4">
+        <v>448128.90625</v>
+      </c>
+      <c r="N29" s="4">
+        <v>160441.3125</v>
+      </c>
+      <c r="O29" s="4">
+        <v>155993.265625</v>
+      </c>
+      <c r="P29" s="4">
+        <v>195715.640625</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>232697.984375</v>
+      </c>
+      <c r="R29" s="4">
+        <v>285426.71875</v>
+      </c>
+    </row>
+    <row r="30" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J30" s="3"/>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4">
+        <v>114692.0546875</v>
+      </c>
+      <c r="M30" s="4">
+        <v>243093.234375</v>
+      </c>
+      <c r="N30" s="4">
+        <v>98820.46875</v>
+      </c>
+      <c r="O30" s="4">
+        <v>95318.8984375</v>
+      </c>
+      <c r="P30" s="4">
+        <v>119823.3125</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>133922.375</v>
+      </c>
+      <c r="R30" s="4">
+        <v>166605.234375</v>
+      </c>
+    </row>
+    <row r="31" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="4">
+        <v>146430.328125</v>
+      </c>
+      <c r="M31" s="4">
+        <v>307456.21875</v>
+      </c>
+      <c r="N31" s="4">
+        <v>115919.8671875</v>
+      </c>
+      <c r="O31" s="4">
+        <v>112309.8046875</v>
+      </c>
+      <c r="P31" s="4">
+        <v>141029.046875</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>163356.453125</v>
+      </c>
+      <c r="R31" s="4">
+        <v>201530.671875</v>
+      </c>
+    </row>
+    <row r="32" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J32" s="3"/>
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="4">
+        <v>146440.015625</v>
+      </c>
+      <c r="M32" s="4">
+        <v>307191.8125</v>
+      </c>
+      <c r="N32" s="4">
+        <v>124895.46875</v>
+      </c>
+      <c r="O32" s="4">
+        <v>120051.5078125</v>
+      </c>
+      <c r="P32" s="4">
+        <v>150522.828125</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>169101.859375</v>
+      </c>
+      <c r="R32" s="4">
+        <v>207453</v>
+      </c>
+    </row>
+    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J33" s="3"/>
+      <c r="K33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="4">
+        <v>97571.7578125</v>
+      </c>
+      <c r="M33" s="4">
+        <v>215069.203125</v>
+      </c>
+      <c r="N33" s="4">
+        <v>99193.8359375</v>
+      </c>
+      <c r="O33" s="4">
+        <v>91631.0234375</v>
+      </c>
+      <c r="P33" s="4">
+        <v>113786.9140625</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>117277.21875</v>
+      </c>
+      <c r="R33" s="4">
+        <v>139279</v>
+      </c>
+    </row>
+    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J34" s="3">
+        <v>2023</v>
+      </c>
+      <c r="K34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>278846.28125</v>
+      </c>
+      <c r="M34" s="4">
+        <v>499502.40625</v>
+      </c>
+      <c r="N34" s="4">
+        <v>213773.5</v>
+      </c>
+      <c r="O34" s="4">
+        <v>209635.953125</v>
+      </c>
+      <c r="P34" s="4">
+        <v>241336.828125</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>298466.21875</v>
+      </c>
+      <c r="R34" s="4">
+        <v>365631.59375</v>
+      </c>
+    </row>
+    <row r="35" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J35" s="3"/>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>149237.46875</v>
+      </c>
+      <c r="M35" s="4">
+        <v>295866.90625</v>
+      </c>
+      <c r="N35" s="4">
+        <v>134606.890625</v>
+      </c>
+      <c r="O35" s="4">
+        <v>129980.078125</v>
+      </c>
+      <c r="P35" s="4">
+        <v>148998.953125</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>182363.234375</v>
+      </c>
+      <c r="R35" s="4">
+        <v>222000.625</v>
+      </c>
+    </row>
+    <row r="36" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J36" s="3"/>
+      <c r="K36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="4">
+        <v>190364.25</v>
+      </c>
+      <c r="M36" s="4">
+        <v>354841.71875</v>
+      </c>
+      <c r="N36" s="4">
+        <v>156001.546875</v>
+      </c>
+      <c r="O36" s="4">
+        <v>151913.15625</v>
+      </c>
+      <c r="P36" s="4">
+        <v>174551.640625</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>214878.6875</v>
+      </c>
+      <c r="R36" s="4">
+        <v>262509.90625</v>
+      </c>
+    </row>
+    <row r="37" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J37" s="3"/>
+      <c r="K37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" s="4">
+        <v>191380.953125</v>
+      </c>
+      <c r="M37" s="4">
+        <v>358728.96875</v>
+      </c>
+      <c r="N37" s="4">
+        <v>169346.8125</v>
+      </c>
+      <c r="O37" s="4">
+        <v>164261.015625</v>
+      </c>
+      <c r="P37" s="4">
+        <v>186860.078125</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>228570.46875</v>
+      </c>
+      <c r="R37" s="4">
+        <v>278368.4375</v>
+      </c>
+    </row>
+    <row r="38" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J38" s="3"/>
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="4">
+        <v>142482.5625</v>
+      </c>
+      <c r="M38" s="4">
+        <v>158249.1875</v>
+      </c>
+      <c r="N38" s="4">
+        <v>135195.828125</v>
+      </c>
+      <c r="O38" s="4">
+        <v>128776.09375</v>
+      </c>
+      <c r="P38" s="4">
+        <v>139158.40625</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>169007.75</v>
+      </c>
+      <c r="R38" s="4">
+        <v>210709.90625</v>
+      </c>
+    </row>
+    <row r="39" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <f xml:space="preserve"> ((L29/L34)-1)*100</f>
+        <v>-23.039138611428044</v>
+      </c>
+      <c r="M39" s="5">
+        <f xml:space="preserve"> ((M29/M34)-1)*100</f>
+        <v>-10.284935439187382</v>
+      </c>
+      <c r="N39" s="5">
+        <f xml:space="preserve"> ((N29/N34)-1)*100</f>
+        <v>-24.947988174399537</v>
+      </c>
+      <c r="O39" s="5">
+        <f xml:space="preserve"> ((O29/O34)-1)*100</f>
+        <v>-25.588496009563009</v>
+      </c>
+      <c r="P39" s="5">
+        <f xml:space="preserve"> ((P29/P34)-1)*100</f>
+        <v>-18.903533229653036</v>
+      </c>
+      <c r="Q39" s="5">
+        <f xml:space="preserve"> ((Q29/Q34)-1)*100</f>
+        <v>-22.035403085294725</v>
+      </c>
+      <c r="R39" s="5">
+        <f xml:space="preserve"> ((R29/R34)-1)*100</f>
+        <v>-21.935980470779548</v>
+      </c>
+    </row>
+    <row r="40" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <f xml:space="preserve"> ((L30/L35)-1)*100</f>
+        <v>-23.147949607996821</v>
+      </c>
+      <c r="M40" s="5">
+        <f xml:space="preserve"> ((M30/M35)-1)*100</f>
+        <v>-17.83696343193165</v>
+      </c>
+      <c r="N40" s="5">
+        <f xml:space="preserve"> ((N30/N35)-1)*100</f>
+        <v>-26.58587662848333</v>
+      </c>
+      <c r="O40" s="5">
+        <f xml:space="preserve"> ((O30/O35)-1)*100</f>
+        <v>-26.666532431352163</v>
+      </c>
+      <c r="P40" s="5">
+        <f xml:space="preserve"> ((P30/P35)-1)*100</f>
+        <v>-19.581104439387321</v>
+      </c>
+      <c r="Q40" s="5">
+        <f xml:space="preserve"> ((Q30/Q35)-1)*100</f>
+        <v>-26.562842856465984</v>
+      </c>
+      <c r="R40" s="5">
+        <f xml:space="preserve"> ((R30/R35)-1)*100</f>
+        <v>-24.952808409886231</v>
+      </c>
+    </row>
+    <row r="41" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+      <c r="K41" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5">
+        <f xml:space="preserve"> ((L31/L36)-1)*100</f>
+        <v>-23.078872149051101</v>
+      </c>
+      <c r="M41" s="5">
+        <f xml:space="preserve"> ((M31/M36)-1)*100</f>
+        <v>-13.353982211258808</v>
+      </c>
+      <c r="N41" s="5">
+        <f xml:space="preserve"> ((N31/N36)-1)*100</f>
+        <v>-25.693129645449233</v>
+      </c>
+      <c r="O41" s="5">
+        <f xml:space="preserve"> ((O31/O36)-1)*100</f>
+        <v>-26.069731246532502</v>
+      </c>
+      <c r="P41" s="5">
+        <f xml:space="preserve"> ((P31/P36)-1)*100</f>
+        <v>-19.204972024306922</v>
+      </c>
+      <c r="Q41" s="5">
+        <f xml:space="preserve"> ((Q31/Q36)-1)*100</f>
+        <v>-23.977359027288358</v>
+      </c>
+      <c r="R41" s="5">
+        <f xml:space="preserve"> ((R31/R36)-1)*100</f>
+        <v>-23.229307893975903</v>
+      </c>
+    </row>
+    <row r="42" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+      <c r="K42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="5">
+        <f xml:space="preserve"> ((L32/L37)-1)*100</f>
+        <v>-23.482450456105177</v>
+      </c>
+      <c r="M42" s="5">
+        <f xml:space="preserve"> ((M32/M37)-1)*100</f>
+        <v>-14.366600062878254</v>
+      </c>
+      <c r="N42" s="5">
+        <f xml:space="preserve"> ((N32/N37)-1)*100</f>
+        <v>-26.248704120132171</v>
+      </c>
+      <c r="O42" s="5">
+        <f xml:space="preserve"> ((O32/O37)-1)*100</f>
+        <v>-26.914181459481647</v>
+      </c>
+      <c r="P42" s="5">
+        <f xml:space="preserve"> ((P32/P37)-1)*100</f>
+        <v>-19.446235046360304</v>
+      </c>
+      <c r="Q42" s="5">
+        <f xml:space="preserve"> ((Q32/Q37)-1)*100</f>
+        <v>-26.017625855264825</v>
+      </c>
+      <c r="R42" s="5">
+        <f xml:space="preserve"> ((R32/R37)-1)*100</f>
+        <v>-25.475387273386552</v>
+      </c>
+    </row>
+    <row r="43" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J43" s="3"/>
+      <c r="K43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="5">
+        <f xml:space="preserve"> ((L33/L38)-1)*100</f>
+        <v>-31.520211245147976</v>
+      </c>
+      <c r="M43" s="5">
+        <f xml:space="preserve"> ((M33/M38)-1)*100</f>
+        <v>35.905407492218558</v>
+      </c>
+      <c r="N43" s="5">
+        <f xml:space="preserve"> ((N33/N38)-1)*100</f>
+        <v>-26.629514154987909</v>
+      </c>
+      <c r="O43" s="5">
+        <f xml:space="preserve"> ((O33/O38)-1)*100</f>
+        <v>-28.844694097191471</v>
+      </c>
+      <c r="P43" s="5">
+        <f xml:space="preserve"> ((P33/P38)-1)*100</f>
+        <v>-18.232094539743258</v>
+      </c>
+      <c r="Q43" s="5">
+        <f xml:space="preserve"> ((Q33/Q38)-1)*100</f>
+        <v>-30.608378166090013</v>
+      </c>
+      <c r="R43" s="5">
+        <f xml:space="preserve"> ((R33/R38)-1)*100</f>
+        <v>-33.900117712192277</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J39:J43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>